--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thpo-Mpl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Thpo-Mpl.xlsx
@@ -82,6 +82,9 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Thpo</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,46 +537,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3152086666666666</v>
+        <v>0.3152086666666667</v>
       </c>
       <c r="H2">
-        <v>0.9456259999999999</v>
+        <v>0.9456260000000001</v>
       </c>
       <c r="I2">
-        <v>0.7086260257034733</v>
+        <v>0.5483315517106911</v>
       </c>
       <c r="J2">
-        <v>0.7848547776388938</v>
+        <v>0.6078213712499911</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.5686833333333333</v>
+        <v>0.1923653333333334</v>
       </c>
       <c r="N2">
-        <v>1.70605</v>
+        <v>0.5770960000000001</v>
       </c>
       <c r="O2">
-        <v>0.5621789231920019</v>
+        <v>0.5187832107608483</v>
       </c>
       <c r="P2">
-        <v>0.562178923192002</v>
+        <v>0.5187832107608484</v>
       </c>
       <c r="Q2">
-        <v>0.1792539152555555</v>
+        <v>0.0606352202328889</v>
       </c>
       <c r="R2">
-        <v>1.6132852373</v>
+        <v>0.5457169820960001</v>
       </c>
       <c r="S2">
-        <v>0.3983746160758065</v>
+        <v>0.2844652029579505</v>
       </c>
       <c r="T2">
-        <v>0.4412288137551315</v>
+        <v>0.3153275225461321</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3152086666666666</v>
+        <v>0.3152086666666667</v>
       </c>
       <c r="H3">
-        <v>0.9456259999999999</v>
+        <v>0.9456260000000001</v>
       </c>
       <c r="I3">
-        <v>0.7086260257034733</v>
+        <v>0.5483315517106911</v>
       </c>
       <c r="J3">
-        <v>0.7848547776388938</v>
+        <v>0.6078213712499911</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,33 +623,33 @@
         <v>0.535307</v>
       </c>
       <c r="O3">
-        <v>0.1763947790727944</v>
+        <v>0.4812167892391516</v>
       </c>
       <c r="P3">
-        <v>0.1763947790727944</v>
+        <v>0.4812167892391516</v>
       </c>
       <c r="Q3">
-        <v>0.05624446857577777</v>
+        <v>0.05624446857577778</v>
       </c>
       <c r="R3">
-        <v>0.5062002171819999</v>
+        <v>0.506200217182</v>
       </c>
       <c r="S3">
-        <v>0.1249979312491965</v>
+        <v>0.2638663487527406</v>
       </c>
       <c r="T3">
-        <v>0.1384442851058399</v>
+        <v>0.2924938487038591</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,19 +658,19 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3152086666666666</v>
+        <v>0.1687885</v>
       </c>
       <c r="H4">
-        <v>0.9456259999999999</v>
+        <v>0.337577</v>
       </c>
       <c r="I4">
-        <v>0.7086260257034733</v>
+        <v>0.2936215589966435</v>
       </c>
       <c r="J4">
-        <v>0.7848547776388938</v>
+        <v>0.2169848492347485</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.264451</v>
+        <v>0.1923653333333334</v>
       </c>
       <c r="N4">
-        <v>0.793353</v>
+        <v>0.5770960000000001</v>
       </c>
       <c r="O4">
-        <v>0.2614262977352037</v>
+        <v>0.5187832107608483</v>
       </c>
       <c r="P4">
-        <v>0.2614262977352037</v>
+        <v>0.5187832107608484</v>
       </c>
       <c r="Q4">
-        <v>0.08335724710866665</v>
+        <v>0.03246905606533334</v>
       </c>
       <c r="R4">
-        <v>0.7502152239779999</v>
+        <v>0.194814336392</v>
       </c>
       <c r="S4">
-        <v>0.1852534783784703</v>
+        <v>0.1523259351248846</v>
       </c>
       <c r="T4">
-        <v>0.2051816787779225</v>
+        <v>0.1125680967724614</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
       <c r="G5">
-        <v>0.129608</v>
+        <v>0.1687885</v>
       </c>
       <c r="H5">
-        <v>0.259216</v>
+        <v>0.337577</v>
       </c>
       <c r="I5">
-        <v>0.2913739742965267</v>
+        <v>0.2936215589966435</v>
       </c>
       <c r="J5">
-        <v>0.2151452223611063</v>
+        <v>0.2169848492347485</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -741,152 +741,152 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.5686833333333333</v>
+        <v>0.1784356666666667</v>
       </c>
       <c r="N5">
-        <v>1.70605</v>
+        <v>0.535307</v>
       </c>
       <c r="O5">
-        <v>0.5621789231920019</v>
+        <v>0.4812167892391516</v>
       </c>
       <c r="P5">
-        <v>0.562178923192002</v>
+        <v>0.4812167892391516</v>
       </c>
       <c r="Q5">
-        <v>0.07370590946666666</v>
+        <v>0.03011788852316667</v>
       </c>
       <c r="R5">
-        <v>0.4422354568</v>
+        <v>0.180707331139</v>
       </c>
       <c r="S5">
-        <v>0.1638043071161954</v>
+        <v>0.1412956238717589</v>
       </c>
       <c r="T5">
-        <v>0.1209501094368706</v>
+        <v>0.104416752462287</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.129608</v>
+        <v>0.09085333333333334</v>
       </c>
       <c r="H6">
-        <v>0.259216</v>
+        <v>0.27256</v>
       </c>
       <c r="I6">
-        <v>0.2913739742965267</v>
+        <v>0.1580468892926654</v>
       </c>
       <c r="J6">
-        <v>0.2151452223611063</v>
+        <v>0.1751937795152604</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1784356666666667</v>
+        <v>0.1923653333333334</v>
       </c>
       <c r="N6">
-        <v>0.535307</v>
+        <v>0.5770960000000001</v>
       </c>
       <c r="O6">
-        <v>0.1763947790727944</v>
+        <v>0.5187832107608483</v>
       </c>
       <c r="P6">
-        <v>0.1763947790727944</v>
+        <v>0.5187832107608484</v>
       </c>
       <c r="Q6">
-        <v>0.02312668988533333</v>
+        <v>0.01747703175111111</v>
       </c>
       <c r="R6">
-        <v>0.138760139312</v>
+        <v>0.15729328576</v>
       </c>
       <c r="S6">
-        <v>0.05139684782359791</v>
+        <v>0.08199207267801327</v>
       </c>
       <c r="T6">
-        <v>0.03795049396695458</v>
+        <v>0.09088759144225493</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.129608</v>
+        <v>0.09085333333333334</v>
       </c>
       <c r="H7">
-        <v>0.259216</v>
+        <v>0.27256</v>
       </c>
       <c r="I7">
-        <v>0.2913739742965267</v>
+        <v>0.1580468892926654</v>
       </c>
       <c r="J7">
-        <v>0.2151452223611063</v>
+        <v>0.1751937795152604</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.264451</v>
+        <v>0.1784356666666667</v>
       </c>
       <c r="N7">
-        <v>0.793353</v>
+        <v>0.535307</v>
       </c>
       <c r="O7">
-        <v>0.2614262977352037</v>
+        <v>0.4812167892391516</v>
       </c>
       <c r="P7">
-        <v>0.2614262977352037</v>
+        <v>0.4812167892391516</v>
       </c>
       <c r="Q7">
-        <v>0.034274965208</v>
+        <v>0.01621147510222222</v>
       </c>
       <c r="R7">
-        <v>0.205649791248</v>
+        <v>0.14590327592</v>
       </c>
       <c r="S7">
-        <v>0.07617281935673337</v>
+        <v>0.07605481661465206</v>
       </c>
       <c r="T7">
-        <v>0.05624461895728118</v>
+        <v>0.08430618807300544</v>
       </c>
     </row>
   </sheetData>
